--- a/report_zone/Report_zone5.xlsx
+++ b/report_zone/Report_zone5.xlsx
@@ -2421,7 +2421,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -12417,7 +12417,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -20608,12 +20608,12 @@
       </c>
       <c r="HE22" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -23345,7 +23345,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -25161,7 +25161,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -26977,7 +26977,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27897,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -28805,7 +28805,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -29713,7 +29713,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -30621,7 +30621,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -32437,7 +32437,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -33345,7 +33345,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -35161,7 +35161,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -36069,7 +36069,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -36973,7 +36973,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -37881,7 +37881,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -38789,7 +38789,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -39697,7 +39697,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -40617,7 +40617,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -41525,7 +41525,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -42433,7 +42433,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -43341,7 +43341,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -44253,7 +44253,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -45161,7 +45161,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -46069,7 +46069,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -46331,7 +46331,7 @@
       </c>
       <c r="AZ51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BA51" t="inlineStr">
@@ -46458,9 +46458,21 @@
         </is>
       </c>
       <c r="CB51" t="inlineStr"/>
-      <c r="CC51" t="inlineStr"/>
-      <c r="CD51" t="inlineStr"/>
-      <c r="CE51" t="inlineStr"/>
+      <c r="CC51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="CD51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="CE51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CF51" t="inlineStr">
         <is>
           <t>true</t>
@@ -46579,12 +46591,12 @@
       </c>
       <c r="DL51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DM51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DN51" t="inlineStr">
@@ -46675,7 +46687,7 @@
       </c>
       <c r="EJ51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EK51" t="inlineStr">
@@ -46759,12 +46771,12 @@
       </c>
       <c r="FH51" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ51" t="inlineStr">
@@ -46774,7 +46786,7 @@
       </c>
       <c r="FK51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL51" t="inlineStr">
@@ -46843,12 +46855,12 @@
         </is>
       </c>
       <c r="FY51" t="inlineStr"/>
-      <c r="FZ51" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="GA51" t="inlineStr"/>
+      <c r="FZ51" t="inlineStr"/>
+      <c r="GA51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GB51" t="inlineStr"/>
       <c r="GC51" t="inlineStr">
         <is>
@@ -46886,12 +46898,12 @@
           <t>false</t>
         </is>
       </c>
-      <c r="GK51" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="GL51" t="inlineStr"/>
+      <c r="GK51" t="inlineStr"/>
+      <c r="GL51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GM51" t="inlineStr"/>
       <c r="GN51" t="inlineStr">
         <is>
@@ -46902,7 +46914,7 @@
       <c r="GP51" t="inlineStr"/>
       <c r="GQ51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GR51" t="inlineStr">
@@ -46977,7 +46989,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -47877,7 +47889,7 @@
       <c r="HE52" t="inlineStr"/>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -48785,7 +48797,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -49585,7 +49597,7 @@
       <c r="HE54" t="inlineStr"/>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -50429,7 +50441,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -51134,7 +51146,7 @@
       </c>
       <c r="FK56" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL56" t="inlineStr">
@@ -51202,12 +51214,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FY56" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FZ56" t="inlineStr"/>
+      <c r="FY56" t="inlineStr"/>
+      <c r="FZ56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GA56" t="inlineStr"/>
       <c r="GB56" t="inlineStr"/>
       <c r="GC56" t="inlineStr">
@@ -51337,7 +51349,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -52253,7 +52265,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -53161,7 +53173,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -54069,7 +54081,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -54877,7 +54889,7 @@
       <c r="HE60" t="inlineStr"/>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -55322,12 +55334,12 @@
       </c>
       <c r="CU61" t="inlineStr"/>
       <c r="CV61" t="inlineStr"/>
-      <c r="CW61" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CX61" t="inlineStr"/>
+      <c r="CW61" t="inlineStr"/>
+      <c r="CX61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CY61" t="inlineStr"/>
       <c r="CZ61" t="inlineStr"/>
       <c r="DA61" t="inlineStr">
@@ -55521,12 +55533,12 @@
           <t>false</t>
         </is>
       </c>
-      <c r="ER61" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="ES61" t="inlineStr"/>
+      <c r="ER61" t="inlineStr"/>
+      <c r="ES61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="ET61" t="inlineStr"/>
       <c r="EU61" t="inlineStr">
         <is>
@@ -55567,12 +55579,12 @@
       <c r="FG61" t="inlineStr"/>
       <c r="FH61" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI61" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ61" t="inlineStr">
@@ -55637,7 +55649,7 @@
       </c>
       <c r="FV61" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FW61" t="inlineStr">
@@ -55651,13 +55663,13 @@
         </is>
       </c>
       <c r="FY61" t="inlineStr"/>
-      <c r="FZ61" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FZ61" t="inlineStr"/>
       <c r="GA61" t="inlineStr"/>
-      <c r="GB61" t="inlineStr"/>
+      <c r="GB61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GC61" t="inlineStr">
         <is>
           <t>true</t>
@@ -55785,7 +55797,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -56693,7 +56705,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -57601,7 +57613,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -58521,7 +58533,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -59437,7 +59449,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -60345,7 +60357,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -61249,7 +61261,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
@@ -62161,7 +62173,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:44:05</t>
+          <t>2025-05-19 19:44:09</t>
         </is>
       </c>
     </row>
